--- a/informes/Gantt_Implementacio.xlsx
+++ b/informes/Gantt_Implementacio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcaix\UAB\TFG\informes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62E7756-14E9-4ACE-A6C5-BE91D384A7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80826AE-E7DE-4054-8EBF-4359FBAD9D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2880" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificació realitzada" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="84">
   <si>
     <t>Setembre, 3</t>
   </si>
@@ -259,18 +259,43 @@
     <t>Realitzat a temps</t>
   </si>
   <si>
-    <t>Realitzat for a de temps</t>
+    <t>Realitzat abans d'hora</t>
+  </si>
+  <si>
+    <t>Realitzat fora de temps</t>
+  </si>
+  <si>
+    <t>No realitzat</t>
+  </si>
+  <si>
+    <t>Optune framework</t>
+  </si>
+  <si>
+    <t>Retocar feina anterior no realitzada correctament</t>
+  </si>
+  <si>
+    <t>Eliminar Datasets no útils. Buscar-ne de nous</t>
+  </si>
+  <si>
+    <t>Realitzat tot i no estar planificat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,8 +360,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,12 +413,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FF6FA8DC"/>
       </patternFill>
@@ -403,8 +429,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor rgb="FF6FA8DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -610,76 +666,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1531,13 +1642,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
@@ -1567,33 +1671,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1625,29 +1706,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2495,16 +2553,69 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2580,62 +2691,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB0720F7-6241-4E34-9519-67C7AD7F02EF}" name="Table13" displayName="Table13" ref="A4:V57" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB0720F7-6241-4E34-9519-67C7AD7F02EF}" name="Table13" displayName="Table13" ref="A4:V57" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
   <autoFilter ref="A4:V57" xr:uid="{BB0720F7-6241-4E34-9519-67C7AD7F02EF}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{D2740A12-917F-49DE-987F-C6D6D095CDD2}" name="Setmanes" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{16C6C443-D93E-433E-96F2-B1059D4F8308}" name="Setembre, 3" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{C722E642-C5AC-44D7-A6F7-7136F07A036E}" name="Setempre, 4" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{A0AC1075-9FD9-4A9F-806E-B878E136BF7D}" name="Octubre, 1" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{4EFB4418-C163-4CB9-8B63-763BB108AF71}" name="Octubre, 2" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{D0C6AFE5-A022-43FE-B93F-B21EC01B4BE2}" name="Octubre, 3" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{61F7D783-4EDB-4A05-9E68-193DA35749EB}" name="Octubre, 4" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{3DF6E92F-0010-4013-A1F0-1457059EF4A7}" name="Novembre, 1" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{43B388C9-AF3F-4CEC-BFD4-305F1607D98B}" name="Novembre, 2" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{74360CEF-E058-406F-97A5-3919C277FDAF}" name="Novembre, 3" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{7AD1F6A1-E91D-4ECB-BC75-F236B2C273D6}" name="Novembre, 4" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{174B2877-BF82-4605-9932-061F52D6005C}" name="Desembre, 1" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{2D6A5CC7-B1A2-41DC-BF67-FD5CBDA9F0A7}" name="Desembre, 2" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{F54A10DA-4B75-4D1A-96FF-5172076DC292}" name="Desembre, 3" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{FBAB82AF-7BF5-41DB-BE08-877F21CDFAA7}" name="Desembre, 4" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{7F0E4454-9EFF-4707-BB23-AF8A30E1BA6C}" name="Gener, 1" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{7FB4E7DD-53DA-430F-B7B8-5FAAD732660D}" name="Gener, 2" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{055B1F6F-F35F-4C92-9A73-2C14318F5DB3}" name="Gener, 3" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{29AEA8EB-A486-469D-9C3F-355930877B2B}" name="Gener, 4" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{E4AB0B1C-FC60-4EC3-AA25-521AB591220B}" name="Febre, 1" dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{43BA8453-F2CC-434C-A0AD-188F1101A102}" name="Febrer, 2" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{ED96EE36-D857-4637-8858-07288CC9CCA1}" name="Febrer, 3" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D2740A12-917F-49DE-987F-C6D6D095CDD2}" name="Setmanes" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{16C6C443-D93E-433E-96F2-B1059D4F8308}" name="Setembre, 3" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{C722E642-C5AC-44D7-A6F7-7136F07A036E}" name="Setempre, 4" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{A0AC1075-9FD9-4A9F-806E-B878E136BF7D}" name="Octubre, 1" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{4EFB4418-C163-4CB9-8B63-763BB108AF71}" name="Octubre, 2" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{D0C6AFE5-A022-43FE-B93F-B21EC01B4BE2}" name="Octubre, 3" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{61F7D783-4EDB-4A05-9E68-193DA35749EB}" name="Octubre, 4" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{3DF6E92F-0010-4013-A1F0-1457059EF4A7}" name="Novembre, 1" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{43B388C9-AF3F-4CEC-BFD4-305F1607D98B}" name="Novembre, 2" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{74360CEF-E058-406F-97A5-3919C277FDAF}" name="Novembre, 3" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{7AD1F6A1-E91D-4ECB-BC75-F236B2C273D6}" name="Novembre, 4" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{174B2877-BF82-4605-9932-061F52D6005C}" name="Desembre, 1" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{2D6A5CC7-B1A2-41DC-BF67-FD5CBDA9F0A7}" name="Desembre, 2" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{F54A10DA-4B75-4D1A-96FF-5172076DC292}" name="Desembre, 3" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{FBAB82AF-7BF5-41DB-BE08-877F21CDFAA7}" name="Desembre, 4" dataDxfId="33"/>
+    <tableColumn id="16" xr3:uid="{7F0E4454-9EFF-4707-BB23-AF8A30E1BA6C}" name="Gener, 1" dataDxfId="32"/>
+    <tableColumn id="17" xr3:uid="{7FB4E7DD-53DA-430F-B7B8-5FAAD732660D}" name="Gener, 2" dataDxfId="31"/>
+    <tableColumn id="18" xr3:uid="{055B1F6F-F35F-4C92-9A73-2C14318F5DB3}" name="Gener, 3" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{29AEA8EB-A486-469D-9C3F-355930877B2B}" name="Gener, 4" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{E4AB0B1C-FC60-4EC3-AA25-521AB591220B}" name="Febre, 1" dataDxfId="28"/>
+    <tableColumn id="21" xr3:uid="{43BA8453-F2CC-434C-A0AD-188F1101A102}" name="Febrer, 2" dataDxfId="27"/>
+    <tableColumn id="22" xr3:uid="{ED96EE36-D857-4637-8858-07288CC9CCA1}" name="Febrer, 3" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4A0FAC8-4AA2-40F4-B9D2-3DE1F1CD4438}" name="Table1" displayName="Table1" ref="A4:V57" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27" headerRowBorderDxfId="50" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4A0FAC8-4AA2-40F4-B9D2-3DE1F1CD4438}" name="Table1" displayName="Table1" ref="A4:V57" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
   <autoFilter ref="A4:V57" xr:uid="{E4A0FAC8-4AA2-40F4-B9D2-3DE1F1CD4438}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{B34C30F5-442A-4663-AE28-092E2CE0B2A7}" name="Setmanes" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{5AD5142D-B4A1-408C-8FE4-33B9668E0126}" name="Setembre, 3" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{3A521330-13E7-40FA-9E84-0B8E52398CB9}" name="Setempre, 4" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{08E5B945-EE36-4E50-AA2E-D0B5226CA47F}" name="Octubre, 1" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{089515AB-D61B-484C-AC47-9F12F9162496}" name="Octubre, 2" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{B1F1A348-A319-41BD-995B-69F2BFF65DDF}" name="Octubre, 3" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{7F15136D-A704-46E6-B594-D15AED4FB9EF}" name="Octubre, 4" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{586EBB9E-2471-4BFF-8746-AF27B561B6B6}" name="Novembre, 1" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{E8DE62B4-7C49-4431-A3BB-36D0BF056F90}" name="Novembre, 2" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{2E95819B-D5C9-4765-9BE7-C4E9C7DFFDDE}" name="Novembre, 3" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{E404E7F0-0AC6-4EDD-A6A0-C871B763756F}" name="Novembre, 4" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{549341C8-DEBF-41AD-9FF9-435233B288A9}" name="Desembre, 1" dataDxfId="38"/>
-    <tableColumn id="13" xr3:uid="{6C1EFCF4-6084-4637-817C-32E788CFE9D7}" name="Desembre, 2" dataDxfId="37"/>
-    <tableColumn id="14" xr3:uid="{EEC2F452-A386-44CF-8199-E5CE1CA01C9A}" name="Desembre, 3" dataDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{89FDC876-FB28-454D-B02D-5297E70F8517}" name="Desembre, 4" dataDxfId="35"/>
-    <tableColumn id="16" xr3:uid="{65D0CB88-EB95-4E75-B337-DAB7FAD7D9FD}" name="Gener, 1" dataDxfId="34"/>
-    <tableColumn id="17" xr3:uid="{3F4CF788-6B9E-4491-8C03-048963BAFACE}" name="Gener, 2" dataDxfId="33"/>
-    <tableColumn id="18" xr3:uid="{ACFB671E-81E4-42A5-B943-EE2252EB5687}" name="Gener, 3" dataDxfId="32"/>
-    <tableColumn id="19" xr3:uid="{590C77B3-8382-42F5-914B-4BA1955E6F9B}" name="Gener, 4" dataDxfId="31"/>
-    <tableColumn id="20" xr3:uid="{937C2DF0-DD3D-4786-98C2-5ED4554C554B}" name="Febre, 1" dataDxfId="30"/>
-    <tableColumn id="21" xr3:uid="{EB629877-B7E7-4D57-8334-12A6B6A55376}" name="Febrer, 2" dataDxfId="29"/>
-    <tableColumn id="22" xr3:uid="{576146CF-00D4-44E0-900F-248C4B69B211}" name="Febrer, 3" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{B34C30F5-442A-4663-AE28-092E2CE0B2A7}" name="Setmanes" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{5AD5142D-B4A1-408C-8FE4-33B9668E0126}" name="Setembre, 3" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{3A521330-13E7-40FA-9E84-0B8E52398CB9}" name="Setempre, 4" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{08E5B945-EE36-4E50-AA2E-D0B5226CA47F}" name="Octubre, 1" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{089515AB-D61B-484C-AC47-9F12F9162496}" name="Octubre, 2" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{B1F1A348-A319-41BD-995B-69F2BFF65DDF}" name="Octubre, 3" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{7F15136D-A704-46E6-B594-D15AED4FB9EF}" name="Octubre, 4" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{586EBB9E-2471-4BFF-8746-AF27B561B6B6}" name="Novembre, 1" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{E8DE62B4-7C49-4431-A3BB-36D0BF056F90}" name="Novembre, 2" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{2E95819B-D5C9-4765-9BE7-C4E9C7DFFDDE}" name="Novembre, 3" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{E404E7F0-0AC6-4EDD-A6A0-C871B763756F}" name="Novembre, 4" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{549341C8-DEBF-41AD-9FF9-435233B288A9}" name="Desembre, 1" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{6C1EFCF4-6084-4637-817C-32E788CFE9D7}" name="Desembre, 2" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{EEC2F452-A386-44CF-8199-E5CE1CA01C9A}" name="Desembre, 3" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{89FDC876-FB28-454D-B02D-5297E70F8517}" name="Desembre, 4" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{65D0CB88-EB95-4E75-B337-DAB7FAD7D9FD}" name="Gener, 1" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{3F4CF788-6B9E-4491-8C03-048963BAFACE}" name="Gener, 2" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{ACFB671E-81E4-42A5-B943-EE2252EB5687}" name="Gener, 3" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{590C77B3-8382-42F5-914B-4BA1955E6F9B}" name="Gener, 4" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{937C2DF0-DD3D-4786-98C2-5ED4554C554B}" name="Febre, 1" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{EB629877-B7E7-4D57-8334-12A6B6A55376}" name="Febrer, 2" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{576146CF-00D4-44E0-900F-248C4B69B211}" name="Febrer, 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2839,16 +2950,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4C9665-836D-41AD-8A57-A46768844E4A}">
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="V64" sqref="A4:V64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="2" max="22" width="6" customWidth="1"/>
+    <col min="2" max="22" width="5.140625" customWidth="1"/>
     <col min="23" max="71" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3001,9 +3112,9 @@
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3028,9 +3139,9 @@
         <v>24</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3054,9 +3165,9 @@
         <v>25</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3081,7 +3192,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3107,7 +3218,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="41"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3133,7 +3244,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="41"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3159,7 +3270,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="41"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3185,7 +3296,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="41"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3212,7 +3323,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="15"/>
@@ -3238,7 +3349,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="15"/>
@@ -3264,7 +3375,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="15"/>
@@ -3316,8 +3427,8 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="24"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="1"/>
       <c r="H18" s="15"/>
       <c r="I18" s="1"/>
@@ -3342,7 +3453,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="19"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="15"/>
@@ -3368,7 +3479,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="19"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="15"/>
@@ -3395,7 +3506,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="1"/>
       <c r="H21" s="15"/>
       <c r="I21" s="1"/>
@@ -3421,7 +3532,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="1"/>
       <c r="H22" s="15"/>
       <c r="I22" s="1"/>
@@ -3447,7 +3558,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="19"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="1"/>
       <c r="H23" s="15"/>
       <c r="I23" s="1"/>
@@ -3472,10 +3583,10 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="28"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3500,7 +3611,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="15"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3526,7 +3637,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="15"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3552,7 +3663,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="52"/>
       <c r="H27" s="15"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -3570,16 +3681,16 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="5" t="s">
-        <v>42</v>
+      <c r="A28" s="53" t="s">
+        <v>81</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="29"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3596,16 +3707,16 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="17" t="s">
-        <v>43</v>
+      <c r="A29" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="29"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -3622,15 +3733,15 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="17" t="s">
-        <v>44</v>
+      <c r="A30" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="29"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3649,14 +3760,14 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="17" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="29"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3682,7 +3793,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="57"/>
       <c r="H32" s="29"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -4350,21 +4461,39 @@
       <c r="V57" s="24"/>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="43"/>
+      <c r="A59" s="42"/>
       <c r="B59" s="27" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="42"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="27" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="44"/>
-      <c r="B61" s="27" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="44"/>
+      <c r="B62" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="51"/>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="54"/>
+      <c r="B64" s="45" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/informes/Gantt_Implementacio.xlsx
+++ b/informes/Gantt_Implementacio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcaix\UAB\TFG\informes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80826AE-E7DE-4054-8EBF-4359FBAD9D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC8A0A-4063-4748-8C64-2DEB11E58664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2880" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12195" yWindow="5415" windowWidth="25425" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificació realitzada" sheetId="6" r:id="rId1"/>
@@ -2952,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4C9665-836D-41AD-8A57-A46768844E4A}">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V64" sqref="A4:V64"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:V64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3401,7 +3401,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="19"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="15"/>
@@ -3586,7 +3586,7 @@
       <c r="E24" s="52"/>
       <c r="F24" s="40"/>
       <c r="G24" s="52"/>
-      <c r="H24" s="29"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3690,7 +3690,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="55"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3742,7 +3742,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="15"/>
       <c r="G30" s="58"/>
-      <c r="H30" s="29"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -3768,7 +3768,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="15"/>
       <c r="G31" s="58"/>
-      <c r="H31" s="29"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3794,7 +3794,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="57"/>
-      <c r="H32" s="29"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3820,7 +3820,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="29"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>

--- a/informes/Gantt_Implementacio.xlsx
+++ b/informes/Gantt_Implementacio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcaix\UAB\TFG\informes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC8A0A-4063-4748-8C64-2DEB11E58664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C9F6A-7DA8-40E3-A0C3-E4F540DD250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12195" yWindow="5415" windowWidth="25425" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="2625" windowWidth="25425" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificació realitzada" sheetId="6" r:id="rId1"/>
@@ -2952,7 +2952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4C9665-836D-41AD-8A57-A46768844E4A}">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:V64"/>
     </sheetView>
   </sheetViews>
@@ -3873,7 +3873,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="20"/>
+      <c r="I35" s="40"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3899,9 +3899,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="24"/>
+      <c r="I36" s="52"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="50"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -3925,9 +3925,9 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="1"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="50"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -3951,10 +3951,10 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="52"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3978,9 +3978,9 @@
       <c r="G39" s="1"/>
       <c r="H39" s="15"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="24"/>
+      <c r="J39" s="52"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="L39" s="50"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -4003,11 +4003,11 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="15"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -4031,9 +4031,9 @@
       <c r="H41" s="15"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="50"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -4057,7 +4057,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="24"/>
+      <c r="K42" s="52"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -4084,8 +4084,8 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="1"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="50"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -4111,7 +4111,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="24"/>
+      <c r="M44" s="50"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>

--- a/informes/Gantt_Implementacio.xlsx
+++ b/informes/Gantt_Implementacio.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcaix\UAB\TFG\informes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C9F6A-7DA8-40E3-A0C3-E4F540DD250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9069B4-BCD2-442F-9D25-B3F8871D71F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="2625" windowWidth="25425" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificació realitzada" sheetId="6" r:id="rId1"/>
-    <sheet name="Planificació inicial" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Setembre, 3</t>
   </si>
@@ -155,15 +154,6 @@
   </si>
   <si>
     <t>Hyper Parameter Tuning</t>
-  </si>
-  <si>
-    <t>Grid Search</t>
-  </si>
-  <si>
-    <t>Random Search</t>
-  </si>
-  <si>
-    <t>Bayesian Optimization</t>
   </si>
   <si>
     <t>ratificar planificació (si escau)</t>
@@ -284,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,12 +327,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -368,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,18 +375,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor rgb="FF6FA8DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -711,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -735,23 +707,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -759,7 +726,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -769,944 +736,33 @@
     <xf numFmtId="16" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <b val="0"/>
@@ -2669,14 +1725,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Planificacio final-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="57"/>
-      <tableStyleElement type="firstRowStripe" dxfId="56"/>
-      <tableStyleElement type="secondRowStripe" dxfId="55"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
     </tableStyle>
     <tableStyle name="Gantt Real-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="54"/>
-      <tableStyleElement type="firstRowStripe" dxfId="53"/>
-      <tableStyleElement type="secondRowStripe" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2691,62 +1747,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB0720F7-6241-4E34-9519-67C7AD7F02EF}" name="Table13" displayName="Table13" ref="A4:V57" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB0720F7-6241-4E34-9519-67C7AD7F02EF}" name="Table13" displayName="Table13" ref="A4:V57" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
   <autoFilter ref="A4:V57" xr:uid="{BB0720F7-6241-4E34-9519-67C7AD7F02EF}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{D2740A12-917F-49DE-987F-C6D6D095CDD2}" name="Setmanes" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{16C6C443-D93E-433E-96F2-B1059D4F8308}" name="Setembre, 3" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{C722E642-C5AC-44D7-A6F7-7136F07A036E}" name="Setempre, 4" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{A0AC1075-9FD9-4A9F-806E-B878E136BF7D}" name="Octubre, 1" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{4EFB4418-C163-4CB9-8B63-763BB108AF71}" name="Octubre, 2" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{D0C6AFE5-A022-43FE-B93F-B21EC01B4BE2}" name="Octubre, 3" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{61F7D783-4EDB-4A05-9E68-193DA35749EB}" name="Octubre, 4" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{3DF6E92F-0010-4013-A1F0-1457059EF4A7}" name="Novembre, 1" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{43B388C9-AF3F-4CEC-BFD4-305F1607D98B}" name="Novembre, 2" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{74360CEF-E058-406F-97A5-3919C277FDAF}" name="Novembre, 3" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{7AD1F6A1-E91D-4ECB-BC75-F236B2C273D6}" name="Novembre, 4" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{174B2877-BF82-4605-9932-061F52D6005C}" name="Desembre, 1" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{2D6A5CC7-B1A2-41DC-BF67-FD5CBDA9F0A7}" name="Desembre, 2" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{F54A10DA-4B75-4D1A-96FF-5172076DC292}" name="Desembre, 3" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{FBAB82AF-7BF5-41DB-BE08-877F21CDFAA7}" name="Desembre, 4" dataDxfId="33"/>
-    <tableColumn id="16" xr3:uid="{7F0E4454-9EFF-4707-BB23-AF8A30E1BA6C}" name="Gener, 1" dataDxfId="32"/>
-    <tableColumn id="17" xr3:uid="{7FB4E7DD-53DA-430F-B7B8-5FAAD732660D}" name="Gener, 2" dataDxfId="31"/>
-    <tableColumn id="18" xr3:uid="{055B1F6F-F35F-4C92-9A73-2C14318F5DB3}" name="Gener, 3" dataDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{29AEA8EB-A486-469D-9C3F-355930877B2B}" name="Gener, 4" dataDxfId="29"/>
-    <tableColumn id="20" xr3:uid="{E4AB0B1C-FC60-4EC3-AA25-521AB591220B}" name="Febre, 1" dataDxfId="28"/>
-    <tableColumn id="21" xr3:uid="{43BA8453-F2CC-434C-A0AD-188F1101A102}" name="Febrer, 2" dataDxfId="27"/>
-    <tableColumn id="22" xr3:uid="{ED96EE36-D857-4637-8858-07288CC9CCA1}" name="Febrer, 3" dataDxfId="26"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4A0FAC8-4AA2-40F4-B9D2-3DE1F1CD4438}" name="Table1" displayName="Table1" ref="A4:V57" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
-  <autoFilter ref="A4:V57" xr:uid="{E4A0FAC8-4AA2-40F4-B9D2-3DE1F1CD4438}"/>
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{B34C30F5-442A-4663-AE28-092E2CE0B2A7}" name="Setmanes" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{5AD5142D-B4A1-408C-8FE4-33B9668E0126}" name="Setembre, 3" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{3A521330-13E7-40FA-9E84-0B8E52398CB9}" name="Setempre, 4" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{08E5B945-EE36-4E50-AA2E-D0B5226CA47F}" name="Octubre, 1" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{089515AB-D61B-484C-AC47-9F12F9162496}" name="Octubre, 2" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{B1F1A348-A319-41BD-995B-69F2BFF65DDF}" name="Octubre, 3" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{7F15136D-A704-46E6-B594-D15AED4FB9EF}" name="Octubre, 4" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{586EBB9E-2471-4BFF-8746-AF27B561B6B6}" name="Novembre, 1" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{E8DE62B4-7C49-4431-A3BB-36D0BF056F90}" name="Novembre, 2" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{2E95819B-D5C9-4765-9BE7-C4E9C7DFFDDE}" name="Novembre, 3" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{E404E7F0-0AC6-4EDD-A6A0-C871B763756F}" name="Novembre, 4" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{549341C8-DEBF-41AD-9FF9-435233B288A9}" name="Desembre, 1" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{6C1EFCF4-6084-4637-817C-32E788CFE9D7}" name="Desembre, 2" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{EEC2F452-A386-44CF-8199-E5CE1CA01C9A}" name="Desembre, 3" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{89FDC876-FB28-454D-B02D-5297E70F8517}" name="Desembre, 4" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{65D0CB88-EB95-4E75-B337-DAB7FAD7D9FD}" name="Gener, 1" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{3F4CF788-6B9E-4491-8C03-048963BAFACE}" name="Gener, 2" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{ACFB671E-81E4-42A5-B943-EE2252EB5687}" name="Gener, 3" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{590C77B3-8382-42F5-914B-4BA1955E6F9B}" name="Gener, 4" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{937C2DF0-DD3D-4786-98C2-5ED4554C554B}" name="Febre, 1" dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{EB629877-B7E7-4D57-8334-12A6B6A55376}" name="Febrer, 2" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{576146CF-00D4-44E0-900F-248C4B69B211}" name="Febrer, 3" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D2740A12-917F-49DE-987F-C6D6D095CDD2}" name="Setmanes" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{16C6C443-D93E-433E-96F2-B1059D4F8308}" name="Setembre, 3" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{C722E642-C5AC-44D7-A6F7-7136F07A036E}" name="Setempre, 4" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{A0AC1075-9FD9-4A9F-806E-B878E136BF7D}" name="Octubre, 1" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{4EFB4418-C163-4CB9-8B63-763BB108AF71}" name="Octubre, 2" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{D0C6AFE5-A022-43FE-B93F-B21EC01B4BE2}" name="Octubre, 3" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{61F7D783-4EDB-4A05-9E68-193DA35749EB}" name="Octubre, 4" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{3DF6E92F-0010-4013-A1F0-1457059EF4A7}" name="Novembre, 1" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{43B388C9-AF3F-4CEC-BFD4-305F1607D98B}" name="Novembre, 2" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{74360CEF-E058-406F-97A5-3919C277FDAF}" name="Novembre, 3" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{7AD1F6A1-E91D-4ECB-BC75-F236B2C273D6}" name="Novembre, 4" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{174B2877-BF82-4605-9932-061F52D6005C}" name="Desembre, 1" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{2D6A5CC7-B1A2-41DC-BF67-FD5CBDA9F0A7}" name="Desembre, 2" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{F54A10DA-4B75-4D1A-96FF-5172076DC292}" name="Desembre, 3" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{FBAB82AF-7BF5-41DB-BE08-877F21CDFAA7}" name="Desembre, 4" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{7F0E4454-9EFF-4707-BB23-AF8A30E1BA6C}" name="Gener, 1" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{7FB4E7DD-53DA-430F-B7B8-5FAAD732660D}" name="Gener, 2" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{055B1F6F-F35F-4C92-9A73-2C14318F5DB3}" name="Gener, 3" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{29AEA8EB-A486-469D-9C3F-355930877B2B}" name="Gener, 4" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{E4AB0B1C-FC60-4EC3-AA25-521AB591220B}" name="Febre, 1" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{43BA8453-F2CC-434C-A0AD-188F1101A102}" name="Febrer, 2" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{ED96EE36-D857-4637-8858-07288CC9CCA1}" name="Febrer, 3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2953,7 +1978,7 @@
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:V64"/>
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2964,8 +1989,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>74</v>
+      <c r="A1" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3015,71 +2040,71 @@
       <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:22" ht="65.25">
-      <c r="A4" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="38" t="s">
+      <c r="S4" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" s="38" t="s">
-        <v>72</v>
+      <c r="U4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -3112,9 +2137,9 @@
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="48"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3139,9 +2164,9 @@
         <v>24</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="47"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3165,9 +2190,9 @@
         <v>25</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="47"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3192,7 +2217,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="49"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3218,7 +2243,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="40"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3244,7 +2269,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="40"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3270,7 +2295,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="40"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3296,7 +2321,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="40"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3323,7 +2348,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="40"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="15"/>
@@ -3349,7 +2374,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="35"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="15"/>
@@ -3375,7 +2400,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="15"/>
@@ -3401,7 +2426,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="15"/>
@@ -3421,14 +2446,14 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="22" t="s">
-        <v>55</v>
+      <c r="A18" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="1"/>
       <c r="H18" s="15"/>
       <c r="I18" s="1"/>
@@ -3447,13 +2472,13 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="15"/>
@@ -3479,7 +2504,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="15"/>
@@ -3506,7 +2531,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="40"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="1"/>
       <c r="H21" s="15"/>
       <c r="I21" s="1"/>
@@ -3532,7 +2557,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="40"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="1"/>
       <c r="H22" s="15"/>
       <c r="I22" s="1"/>
@@ -3558,7 +2583,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="40"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="1"/>
       <c r="H23" s="15"/>
       <c r="I23" s="1"/>
@@ -3577,16 +2602,16 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="40"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3611,7 +2636,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="52"/>
+      <c r="G25" s="47"/>
       <c r="H25" s="15"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3637,7 +2662,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="52"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="15"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -3663,7 +2688,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="52"/>
+      <c r="G27" s="47"/>
       <c r="H27" s="15"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -3681,16 +2706,16 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="53" t="s">
-        <v>81</v>
+      <c r="A28" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3707,15 +2732,15 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="53" t="s">
-        <v>82</v>
+      <c r="A29" s="48" t="s">
+        <v>79</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="56"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3741,8 +2766,8 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="40"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -3760,15 +2785,15 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="40"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="35"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3786,15 +2811,15 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="40"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="35"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3812,7 +2837,7 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3820,7 +2845,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="40"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3837,7 +2862,7 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="3"/>
@@ -3864,7 +2889,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3873,7 +2898,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="40"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3899,9 +2924,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="52"/>
+      <c r="I36" s="47"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="50"/>
+      <c r="K36" s="45"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -3915,8 +2940,8 @@
       <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="25" t="s">
-        <v>56</v>
+      <c r="A37" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3925,9 +2950,9 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="50"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="45"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -3942,7 +2967,7 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3951,10 +2976,10 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="52"/>
+      <c r="I38" s="47"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3968,7 +2993,7 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3978,9 +3003,9 @@
       <c r="G39" s="1"/>
       <c r="H39" s="15"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="52"/>
+      <c r="J39" s="47"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="50"/>
+      <c r="L39" s="45"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3993,8 +3018,8 @@
       <c r="V39" s="1"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="22" t="s">
-        <v>50</v>
+      <c r="A40" s="20" t="s">
+        <v>47</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4003,12 +3028,12 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="15"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="1"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="45"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -4019,8 +3044,8 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="30" t="s">
-        <v>57</v>
+      <c r="A41" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4031,10 +3056,10 @@
       <c r="H41" s="15"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="1"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="45"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -4046,7 +3071,7 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4057,7 +3082,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="52"/>
+      <c r="K42" s="47"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -4072,7 +3097,7 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4084,9 +3109,9 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="1"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -4098,7 +3123,7 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4111,7 +3136,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="50"/>
+      <c r="M44" s="47"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -4123,7 +3148,7 @@
       <c r="V44" s="1"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="3"/>
@@ -4149,8 +3174,8 @@
       <c r="V45" s="4"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="31" t="s">
-        <v>58</v>
+      <c r="A46" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4164,7 +3189,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="24"/>
+      <c r="N46" s="35"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -4175,8 +3200,8 @@
       <c r="V46" s="1"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="31" t="s">
-        <v>59</v>
+      <c r="A47" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4190,7 +3215,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="24"/>
+      <c r="N47" s="35"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -4201,8 +3226,8 @@
       <c r="V47" s="1"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="32" t="s">
-        <v>60</v>
+      <c r="A48" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4217,8 +3242,8 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -4227,8 +3252,8 @@
       <c r="V48" s="1"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="32" t="s">
-        <v>61</v>
+      <c r="A49" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4245,16 +3270,16 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="32" t="s">
-        <v>62</v>
+      <c r="A50" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4272,15 +3297,15 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="24"/>
+      <c r="R50" s="35"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="32" t="s">
-        <v>63</v>
+      <c r="A51" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4298,15 +3323,15 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="24"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="35"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="32" t="s">
-        <v>64</v>
+      <c r="A52" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4325,14 +3350,14 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-      <c r="S52" s="24"/>
+      <c r="S52" s="35"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
     </row>
     <row r="53" spans="1:22" ht="15" customHeight="1">
-      <c r="A53" s="33" t="s">
-        <v>65</v>
+      <c r="A53" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4352,13 +3377,13 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="24"/>
+      <c r="T53" s="35"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
     </row>
     <row r="54" spans="1:22" ht="15" customHeight="1">
-      <c r="A54" s="33" t="s">
-        <v>67</v>
+      <c r="A54" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4378,13 +3403,13 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-      <c r="T54" s="24"/>
+      <c r="T54" s="35"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="1:22" ht="15" customHeight="1">
-      <c r="A55" s="33" t="s">
-        <v>66</v>
+      <c r="A55" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4404,13 +3429,13 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
-      <c r="T55" s="24"/>
+      <c r="T55" s="35"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
     </row>
     <row r="56" spans="1:22" ht="15" customHeight="1">
-      <c r="A56" s="33" t="s">
-        <v>68</v>
+      <c r="A56" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4431,12 +3456,12 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
-      <c r="U56" s="24"/>
+      <c r="U56" s="35"/>
       <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:22" ht="15" customHeight="1">
-      <c r="A57" s="34" t="s">
-        <v>69</v>
+      <c r="A57" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4458,1566 +3483,43 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="24"/>
+      <c r="V57" s="35"/>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="42"/>
-      <c r="B59" s="27" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="36"/>
+      <c r="B60" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="38"/>
+      <c r="B61" s="40" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
-      <c r="A60" s="41"/>
-      <c r="B60" s="27" t="s">
+    <row r="62" spans="1:22">
+      <c r="A62" s="39"/>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="46"/>
+      <c r="B63" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
-      <c r="A61" s="43"/>
-      <c r="B61" s="45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
-      <c r="A62" s="44"/>
-      <c r="B62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
-      <c r="A63" s="51"/>
-      <c r="B63" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="54"/>
-      <c r="B64" s="45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:V57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="2" max="22" width="6" customWidth="1"/>
-    <col min="23" max="71" width="4.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="10"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-    </row>
-    <row r="4" spans="1:22" ht="65.25">
-      <c r="A4" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="U4" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" s="38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="A39" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-    </row>
-    <row r="41" spans="1:22">
-      <c r="A41" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-    </row>
-    <row r="49" spans="1:22">
-      <c r="A49" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-    </row>
-    <row r="50" spans="1:22">
-      <c r="A50" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-    </row>
-    <row r="51" spans="1:22">
-      <c r="A51" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-    </row>
-    <row r="52" spans="1:22">
-      <c r="A52" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-    </row>
-    <row r="53" spans="1:22" ht="15" customHeight="1">
-      <c r="A53" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-    </row>
-    <row r="54" spans="1:22" ht="15" customHeight="1">
-      <c r="A54" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-    </row>
-    <row r="55" spans="1:22" ht="15" customHeight="1">
-      <c r="A55" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-    </row>
-    <row r="56" spans="1:22" ht="15" customHeight="1">
-      <c r="A56" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="1"/>
-    </row>
-    <row r="57" spans="1:22" ht="15" customHeight="1">
-      <c r="A57" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="24"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="40" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
